--- a/result/problem_1/meonf/result_2.xlsx
+++ b/result/problem_1/meonf/result_2.xlsx
@@ -703,10 +703,10 @@
         <v>11376208</v>
       </c>
       <c r="C12" t="n">
-        <v>1390</v>
+        <v>1560</v>
       </c>
       <c r="D12" t="n">
-        <v>1497</v>
+        <v>1667</v>
       </c>
       <c r="E12" t="n">
         <v>2250</v>
@@ -1209,10 +1209,10 @@
         <v>11379278</v>
       </c>
       <c r="C34" t="n">
-        <v>11297</v>
+        <v>11473</v>
       </c>
       <c r="D34" t="n">
-        <v>11404</v>
+        <v>11580</v>
       </c>
       <c r="E34" t="n">
         <v>13500</v>
@@ -1258,13 +1258,13 @@
         <v>1284</v>
       </c>
       <c r="D36" t="n">
-        <v>1817</v>
+        <v>1539</v>
       </c>
       <c r="E36" t="n">
         <v>1350</v>
       </c>
       <c r="F36" t="n">
-        <v>467</v>
+        <v>189</v>
       </c>
       <c r="G36" t="n">
         <v>255</v>
@@ -1439,10 +1439,10 @@
         <v>11419674</v>
       </c>
       <c r="C44" t="n">
-        <v>1497</v>
+        <v>1667</v>
       </c>
       <c r="D44" t="n">
-        <v>1647</v>
+        <v>1817</v>
       </c>
       <c r="E44" t="n">
         <v>2250</v>
@@ -1738,10 +1738,10 @@
         <v>11426639</v>
       </c>
       <c r="C57" t="n">
-        <v>1369</v>
+        <v>1539</v>
       </c>
       <c r="D57" t="n">
-        <v>1390</v>
+        <v>1560</v>
       </c>
       <c r="E57" t="n">
         <v>2250</v>
@@ -1994,13 +1994,13 @@
         <v>11209</v>
       </c>
       <c r="D68" t="n">
-        <v>11720</v>
+        <v>11473</v>
       </c>
       <c r="E68" t="n">
         <v>11250</v>
       </c>
       <c r="F68" t="n">
-        <v>470</v>
+        <v>223</v>
       </c>
       <c r="G68" t="n">
         <v>264</v>
@@ -2520,10 +2520,10 @@
         <v>11435497</v>
       </c>
       <c r="C91" t="n">
-        <v>11404</v>
+        <v>11580</v>
       </c>
       <c r="D91" t="n">
-        <v>11544</v>
+        <v>11720</v>
       </c>
       <c r="E91" t="n">
         <v>13500</v>
